--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263383.5932326784</v>
+        <v>260902.6734072201</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>85.4190035565756</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>74.38268917282529</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>107.073373426936</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271158</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>36.11665417925256</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>57.36820351377883</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>201.5333161577512</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>42.09561300827276</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>9.166859385897411</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1831,7 +1831,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
@@ -1856,10 +1856,10 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.9743241343308</v>
       </c>
       <c r="H17" t="n">
-        <v>168.4481212831619</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929147</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2090,7 +2090,7 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
@@ -2138,10 +2138,10 @@
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.7856194870058</v>
       </c>
       <c r="W20" t="n">
-        <v>233.6711757635796</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>137.1198840074564</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330923</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860179</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432833</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5302192482727</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>77.43656365929101</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515437</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988204</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>91.27556587748751</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>230.7340562419014</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>90.95618068285741</v>
       </c>
       <c r="F40" t="n">
-        <v>91.27556587748694</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7690391349164</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
         <v>47.07029468621582</v>
@@ -3952,19 +3952,19 @@
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.106871388384</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136046</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
         <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>101.8902586125586</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
         <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>110.5480262953171</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
         <v>47.07029468621582</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.760632691082</v>
+        <v>1498.714766761814</v>
       </c>
       <c r="C11" t="n">
-        <v>1602.990183010395</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D11" t="n">
-        <v>1271.916551663368</v>
+        <v>825.870685734099</v>
       </c>
       <c r="E11" t="n">
-        <v>913.3203663248473</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F11" t="n">
-        <v>529.5265287949635</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G11" t="n">
-        <v>141.6461458996837</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253116</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786676</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.610911702829</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2291.034323692439</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>1944.760632691082</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.760632691082</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237411</v>
+        <v>418.3126375609357</v>
       </c>
       <c r="C13" t="n">
-        <v>759.525093955558</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D13" t="n">
-        <v>636.600521802946</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802767</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.008292145084</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1714.097492530452</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1486.605071584289</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.123602716357</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X13" t="n">
-        <v>1249.326119078063</v>
+        <v>766.3695470152583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194257</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.000440944341</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1746.229991263653</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D14" t="n">
-        <v>1415.156359916627</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="E14" t="n">
-        <v>1056.560174578106</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="F14" t="n">
-        <v>672.7663370482221</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="G14" t="n">
-        <v>284.8859541529422</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299101</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039935</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.850719956088</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.274131945698</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.000440944341</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.000440944341</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.887185731686</v>
+        <v>480.9510275436848</v>
       </c>
       <c r="C16" t="n">
-        <v>570.3663645112085</v>
+        <v>339.2069118755015</v>
       </c>
       <c r="D16" t="n">
-        <v>447.4417923585964</v>
+        <v>216.2823397228894</v>
       </c>
       <c r="E16" t="n">
-        <v>326.720766035927</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="F16" t="n">
         <v>207.0228857977408</v>
@@ -5434,13 +5434,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162335</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.459102547703</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.966681601539</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.741578824302</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X16" t="n">
-        <v>960.9440951860086</v>
+        <v>829.0079369980072</v>
       </c>
       <c r="Y16" t="n">
-        <v>767.3435833022021</v>
+        <v>635.4074251142008</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1224.583240809387</v>
+        <v>940.9592424104337</v>
       </c>
       <c r="E17" t="n">
-        <v>913.4366884189399</v>
+        <v>629.8126900199868</v>
       </c>
       <c r="F17" t="n">
-        <v>577.0924838371293</v>
+        <v>293.4684854381762</v>
       </c>
       <c r="G17" t="n">
-        <v>236.6617338899227</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,7 +5540,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1732.031612952115</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.999521934037</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>941.0313189532726</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446358</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562825</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156189</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.38291882478</v>
       </c>
       <c r="W20" t="n">
-        <v>2487.279351611659</v>
+        <v>2445.255963762463</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.455293558376</v>
+        <v>2146.43190570918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.957661790361</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671185</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625798</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879838</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349356</v>
+        <v>973.0946095349346</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531241</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>429.662534801861</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917076</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2253.645634821814</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.799314350161</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707339</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830774</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094483</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138543</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937444</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892056</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146095</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7283489244961</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706853</v>
@@ -6142,55 +6142,55 @@
         <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892618</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1855.94143530779</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720301</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.024176136297</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668918</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>792.1780824632697</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.212295711679</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M26" t="n">
-        <v>1776.744200383603</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2323.523017442385</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321722</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415474</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,19 +6464,19 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464985</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521974</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6598,22 +6598,22 @@
         <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668918</v>
@@ -6622,22 +6622,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668918</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,19 +6728,19 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,7 +6856,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973145</v>
@@ -6874,16 +6874,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,7 +6935,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6953,7 +6953,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,16 +6965,16 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127581</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586946</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202023</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>569.9553583116527</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X37" t="n">
-        <v>946.005145338841</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691543</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,10 +7172,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,16 +7254,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127578</v>
+        <v>543.5641013650703</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586943</v>
+        <v>473.2993530110068</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202019</v>
+        <v>323.1827135986711</v>
       </c>
       <c r="E40" t="n">
-        <v>569.9553583116522</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388409</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691541</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495728</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.2736995386225</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107156</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D43" t="n">
         <v>379.2208771983799</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.9221643688622</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
@@ -7661,37 +7661,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389144</v>
+        <v>453.7336441225986</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848509</v>
+        <v>383.4688957685351</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725151</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>273.941054590122</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660551</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>788.1499352728556</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388409</v>
+        <v>658.8318189486816</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691541</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729016</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389614</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333078</v>
+        <v>181.0856325333059</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830252</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384001</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586594</v>
+        <v>190.8908035586578</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266131</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672281</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253601</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677739</v>
+        <v>92.30246558677591</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359743</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615462</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085232</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662708</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4994347185299</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333773</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966302</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>402.5500016878941</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473915</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>40.02214132148686</v>
+        <v>187.8883066283073</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>269.5912199285598</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.3049286273687</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579944</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104932</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.25330108456545</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292082</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>223.4861975702119</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>270.3946915197777</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>66.1543016424428</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.23106150322864</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.3469566735453</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292087</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134036</v>
       </c>
       <c r="H17" t="n">
-        <v>52.26435989843952</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.07135577741015936</v>
       </c>
       <c r="W20" t="n">
-        <v>41.67450974811439</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1113778.228216659</v>
+        <v>1113778.228216658</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>924123.8804314653</v>
+        <v>924123.8804314652</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>924123.8804314652</v>
+        <v>924123.8804314653</v>
       </c>
     </row>
     <row r="7">
@@ -26314,25 +26314,25 @@
         <v>409638.1693585192</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.169358519</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="D2" t="n">
-        <v>409649.3349029734</v>
+        <v>409649.3349029731</v>
       </c>
       <c r="E2" t="n">
-        <v>364770.0004524871</v>
+        <v>364770.0004524872</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.0004524873</v>
+        <v>364770.0004524874</v>
       </c>
       <c r="G2" t="n">
+        <v>397265.4106232686</v>
+      </c>
+      <c r="H2" t="n">
         <v>397265.4106232684</v>
       </c>
-      <c r="H2" t="n">
-        <v>397265.4106232685</v>
-      </c>
       <c r="I2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="J2" t="n">
         <v>410520.8849321411</v>
@@ -26341,13 +26341,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321411</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321415</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552155</v>
+        <v>59764.55367552381</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983389</v>
+        <v>22821.46782983346</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
@@ -26421,40 +26421,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954655</v>
+        <v>430603.4278954647</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364981</v>
+        <v>40024.16194364973</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364974</v>
+        <v>40024.16194364979</v>
       </c>
       <c r="G4" t="n">
         <v>77052.32230509196</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509196</v>
+        <v>77052.32230509199</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.5102775438</v>
+        <v>90617.5102775439</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699586</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699583</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699586</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="M4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="P4" t="n">
         <v>92183.89891818172</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,19 +26485,19 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76389.42119044598</v>
+        <v>-76393.83476831409</v>
       </c>
       <c r="C6" t="n">
-        <v>-76389.42119044621</v>
+        <v>-76393.83476831415</v>
       </c>
       <c r="D6" t="n">
-        <v>-115867.55209988</v>
+        <v>-115871.9098500276</v>
       </c>
       <c r="E6" t="n">
-        <v>-841062.6240196222</v>
+        <v>-841291.3784420181</v>
       </c>
       <c r="F6" t="n">
-        <v>248176.3481440112</v>
+        <v>247947.5937216128</v>
       </c>
       <c r="G6" t="n">
-        <v>202114.3358980875</v>
+        <v>202048.0585265433</v>
       </c>
       <c r="H6" t="n">
-        <v>239694.4451929617</v>
+        <v>239628.1678214171</v>
       </c>
       <c r="I6" t="n">
-        <v>211345.3785229221</v>
+        <v>211345.3785229222</v>
       </c>
       <c r="J6" t="n">
-        <v>206772.5550385422</v>
+        <v>206772.5550385421</v>
       </c>
       <c r="K6" t="n">
         <v>232181.9880603396</v>
       </c>
       <c r="L6" t="n">
-        <v>194601.8787654649</v>
+        <v>194601.8787654655</v>
       </c>
       <c r="M6" t="n">
-        <v>33650.28871498584</v>
+        <v>33650.28871498599</v>
       </c>
       <c r="N6" t="n">
         <v>235818.3887077101</v>
       </c>
       <c r="O6" t="n">
-        <v>235818.38870771</v>
+        <v>235818.3887077099</v>
       </c>
       <c r="P6" t="n">
-        <v>235818.38870771</v>
+        <v>235818.3887077101</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G2" t="n">
         <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810496</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790497</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790497</v>
+        <v>69.78465283790761</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712651</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672117</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987537</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519102</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990635</v>
+        <v>7.649035050990081</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317073</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="17">
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075586</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T19" t="n">
         <v>73.895283205719</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075599</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G25" t="n">
-        <v>11.49558901075551</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075633</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859395</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>54.14548214544374</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371176</v>
       </c>
       <c r="F40" t="n">
-        <v>54.1454821454443</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>55.47778196371141</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810496</v>
@@ -30672,19 +30672,19 @@
         <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="X43" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>55.47778196371078</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>55.47778196371114</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,22 +30900,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="V46" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>97.68472022810496</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413263</v>
+        <v>0.2805413179413369</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366609</v>
+        <v>2.873093772366718</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993299</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362267</v>
+        <v>23.81059368362357</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207901</v>
+        <v>35.68590767208037</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102589</v>
+        <v>44.27152403102757</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396495</v>
+        <v>49.26060069396681</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356575</v>
+        <v>50.05768871356764</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328668</v>
+        <v>47.26805598328847</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661018</v>
+        <v>40.34219219661171</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783642</v>
+        <v>30.29530624783757</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313186</v>
+        <v>17.62255356313252</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258798</v>
+        <v>6.392835282588222</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288157</v>
+        <v>1.228069619288203</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353061</v>
+        <v>0.02244330543530695</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796446</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840253</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693906</v>
+        <v>5.168014384694103</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906897</v>
+        <v>14.18142647906951</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710516</v>
+        <v>24.23831663710608</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126461</v>
+        <v>32.59140791264733</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665821</v>
+        <v>38.03263579665965</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655592</v>
+        <v>39.0392464965574</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847011</v>
+        <v>35.71328360847146</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449724</v>
+        <v>28.66305863449832</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447535</v>
+        <v>19.16049562447607</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767767</v>
+        <v>9.319542882768118</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608749</v>
+        <v>2.788094384608854</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890061</v>
+        <v>0.605019773189029</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345048</v>
+        <v>0.009875186722345421</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486811</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811002</v>
+        <v>1.118842466811044</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307852</v>
+        <v>3.784387403078663</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481752</v>
+        <v>8.896971231482089</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489222</v>
+        <v>14.62045677489277</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247721</v>
+        <v>18.70915102477281</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908189</v>
+        <v>19.72617653908263</v>
       </c>
       <c r="N10" t="n">
-        <v>19.257132151155</v>
+        <v>19.25713215115573</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874995</v>
+        <v>17.78707839875062</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287684</v>
+        <v>15.21991838287742</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852365</v>
+        <v>10.53748257852405</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381605</v>
+        <v>5.658276933381819</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233832</v>
+        <v>2.193068516233915</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625463</v>
+        <v>0.5376850300625666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356443</v>
+        <v>0.006864064213564691</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>679.8012701314411</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370969</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>358.3296824113152</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889624</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887893</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564876</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>858.140116080226</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776183</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>592.3239767343983</v>
+        <v>740.1901420412186</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,16 +37236,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
